--- a/data/trans_dic/P45C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 17,85</t>
+          <t>11,46; 18,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 24,85</t>
+          <t>16,63; 24,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 20,36</t>
+          <t>13,47; 20,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,1</t>
+          <t>11,79; 18,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 20,64</t>
+          <t>12,33; 20,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,35</t>
+          <t>9,64; 18,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,7; 24,62</t>
+          <t>15,84; 24,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,67</t>
+          <t>8,95; 14,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 17,71</t>
+          <t>12,64; 17,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,34</t>
+          <t>14,85; 20,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,98</t>
+          <t>15,24; 20,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,51</t>
+          <t>11,33; 15,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 20,17</t>
+          <t>12,61; 20,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 18,68</t>
+          <t>10,61; 18,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 16,2</t>
+          <t>8,82; 15,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,74; 20,22</t>
+          <t>12,76; 20,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 19,8</t>
+          <t>12,81; 20,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,74</t>
+          <t>12,78; 21,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 20,35</t>
+          <t>12,72; 21,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,68</t>
+          <t>11,91; 18,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,86</t>
+          <t>13,38; 18,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,2</t>
+          <t>12,9; 18,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,04</t>
+          <t>11,58; 16,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,55</t>
+          <t>13,18; 18,34</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,85; 22,92</t>
+          <t>15,93; 23,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,17</t>
+          <t>12,34; 18,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,8</t>
+          <t>9,8; 15,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 18,53</t>
+          <t>3,72; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 19,95</t>
+          <t>9,39; 19,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 18,15</t>
+          <t>9,67; 18,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,2</t>
+          <t>6,7; 16,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,07</t>
+          <t>10,83; 20,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,31; 20,94</t>
+          <t>15,02; 20,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,24</t>
+          <t>12,41; 17,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,1</t>
+          <t>9,82; 14,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 17,66</t>
+          <t>5,1; 17,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,16</t>
+          <t>12,01; 15,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,46</t>
+          <t>13,9; 18,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,67</t>
+          <t>10,6; 14,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,86</t>
+          <t>12,23; 16,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,62</t>
+          <t>10,63; 15,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 17,42</t>
+          <t>12,12; 17,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,33</t>
+          <t>11,34; 15,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 14,14</t>
+          <t>5,77; 13,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 15,2</t>
+          <t>12,21; 15,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 17,09</t>
+          <t>13,94; 17,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 14,43</t>
+          <t>11,48; 14,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,75</t>
+          <t>8,68; 14,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,39</t>
+          <t>9,57; 16,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,04; 19,24</t>
+          <t>12,93; 19,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,36</t>
+          <t>7,33; 12,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,24</t>
+          <t>15,78; 24,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,75</t>
+          <t>6,2; 10,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,92</t>
+          <t>8,08; 12,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,78</t>
+          <t>7,68; 11,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,48</t>
+          <t>9,04; 14,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,19</t>
+          <t>8,19; 12,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,64</t>
+          <t>10,88; 14,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,26</t>
+          <t>7,92; 11,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,16</t>
+          <t>12,11; 17,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,6; 26,97</t>
+          <t>17,32; 26,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,69; 38,68</t>
+          <t>27,15; 38,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 28,61</t>
+          <t>18,13; 28,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 32,85</t>
+          <t>13,69; 32,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,57</t>
+          <t>9,96; 13,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 16,09</t>
+          <t>12,03; 16,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,29</t>
+          <t>11,92; 16,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 15,77</t>
+          <t>10,79; 15,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 15,38</t>
+          <t>12,07; 15,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,83; 19,87</t>
+          <t>15,55; 19,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,0</t>
+          <t>14,13; 18,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,17</t>
+          <t>12,31; 18,34</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,01</t>
+          <t>14,47; 16,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,95</t>
+          <t>16,28; 18,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,25; 14,63</t>
+          <t>12,18; 14,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,11</t>
+          <t>11,48; 17,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,6</t>
+          <t>11,36; 13,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,39; 14,64</t>
+          <t>12,32; 14,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 14,83</t>
+          <t>12,42; 14,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,64</t>
+          <t>9,97; 13,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,29; 14,93</t>
+          <t>13,29; 14,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,62; 16,39</t>
+          <t>14,57; 16,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,65; 14,32</t>
+          <t>12,7; 14,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,97</t>
+          <t>11,84; 14,92</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna quemadura solar en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67225</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>89811</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>70547</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75317</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49410</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>41352</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>67477</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52240</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>116635</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>131164</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>138024</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>127557</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54314; 85611</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>72535; 107216</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>57301; 87309</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>59549; 93918</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37698; 63353</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30110; 56238</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54132; 84745</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40061; 64963</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>98547; 138761</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>111155; 152589</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>116850; 159206</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>107894; 150340</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58145</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58834</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45006</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73311</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>60883</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56065</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>60574</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57099</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119028</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>114900</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>105580</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>130410</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46285; 73608</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43649; 75100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33015; 59336</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57719; 92074</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47620; 75943</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42824; 72063</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46911; 79105</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45583; 71116</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>98836; 139899</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>96264; 137931</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86055; 125018</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>110049; 153083</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>95359</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64704</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72880</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23373</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34886</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24793</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>127259</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>130245</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83704</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97673</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>86091; 124709</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77548; 113995</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50583; 82313</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24815; 121462</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15759; 33383</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24742; 47824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11137; 28054</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18009; 33774</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>106363; 146776</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>109786; 151517</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>67042; 101709</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42458; 147021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>173029</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>184053</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>142998</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>148905</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>92171</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>110294</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>111076</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103016</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>265200</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>294347</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>254075</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>251921</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>148392; 196986</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>159367; 211439</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>120683; 167260</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>126014; 174630</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>75597; 110478</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>92267; 130981</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93124; 130986</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>56399; 136293</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>237659; 295832</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>266015; 329738</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>224867; 285114</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>174195; 295562</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45090</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>81619</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>59446</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92873</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47304</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78074</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69685</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>101234</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>92394</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>159693</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>129130</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>194106</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>33443; 58876</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>65646; 97938</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45414; 78603</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>74752; 113784</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35201; 62231</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>61266; 96397</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>56289; 86915</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>76022; 124288</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>75155; 110694</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>137677; 185411</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>107089; 152093</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>159175; 224068</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>66091</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>87289</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>66215</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>51017</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>145803</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>152917</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>149634</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>99502</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>211893</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>240206</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>215849</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>150518</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51360; 78811</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71638; 102291</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51215; 79972</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>32922; 77587</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>123994; 169945</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>131397; 176189</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>128044; 173340</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>82087; 118381</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>186107; 238471</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>210942; 267852</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>191812; 245686</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>123246; 183622</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>513467</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>596966</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>448915</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>514301</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>418942</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>473589</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>477446</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>437885</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>932409</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1070554</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>926361</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>952186</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>472070; 553581</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>552669; 642735</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>408912; 488168</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>386605; 578485</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>382981; 458309</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>433176; 514325</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>435450; 517757</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>356568; 483595</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>881263; 993088</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1006792; 1130522</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>871402; 983072</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>821834; 1036392</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P45C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
